--- a/fractal/teste.xlsx
+++ b/fractal/teste.xlsx
@@ -32,10 +32,10 @@
     <t>TEXTO_A_COMPARAR</t>
   </si>
   <si>
-    <t>Este é o arquivo fonte</t>
+    <t>não estou usando artigos nessa frase</t>
   </si>
   <si>
-    <t>Este é o arquivo comparativo</t>
+    <t>estou usando artigos nessa frase</t>
   </si>
 </sst>
 </file>
@@ -356,12 +356,12 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="1" max="1" width="36.7109375" customWidth="1"/>
     <col min="2" max="2" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>

--- a/fractal/teste.xlsx
+++ b/fractal/teste.xlsx
@@ -356,7 +356,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -375,10 +375,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
